--- a/data/regional outflow rate.xlsx
+++ b/data/regional outflow rate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\505-07\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\505-07\Desktop\인구소멸 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2318,7 +2318,7 @@
         <v>188</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2.508358503060747E-2</v>
       </c>
       <c r="D53">
         <v>-8.3298451234826293E-2</v>
